--- a/data/trans_camb/POLIPATOLOGIA_5-Clase-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA_5-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,38; -1,18</t>
+          <t>-4,54; -1,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 3,85</t>
+          <t>-1,52; 3,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,93; 5,69</t>
+          <t>0,76; 5,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 2,92</t>
+          <t>-3,64; 3,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 3,12</t>
+          <t>-3,56; 3,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,88; 7,74</t>
+          <t>1,07; 7,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 0,27</t>
+          <t>-3,44; 0,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 2,88</t>
+          <t>-1,28; 2,65</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,88; 5,81</t>
+          <t>1,85; 5,99</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -35,03</t>
+          <t>-100,0; -39,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-38,74; 249,03</t>
+          <t>-44,43; 235,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,16; 338,05</t>
+          <t>16,52; 349,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-58,32; 99,56</t>
+          <t>-56,47; 128,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-58,48; 109,51</t>
+          <t>-56,91; 107,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,95; 287,37</t>
+          <t>12,81; 267,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-72,52; 11,85</t>
+          <t>-71,5; 17,39</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-26,02; 104,34</t>
+          <t>-28,12; 109,28</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>36,22; 229,28</t>
+          <t>36,71; 244,57</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 1,71</t>
+          <t>-2,35; 1,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 1,05</t>
+          <t>-2,77; 1,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,45; 7,34</t>
+          <t>2,15; 7,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 4,53</t>
+          <t>-2,32; 4,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 3,48</t>
+          <t>-3,06; 3,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,03; 11,91</t>
+          <t>4,79; 11,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 2,12</t>
+          <t>-1,64; 2,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 1,65</t>
+          <t>-2,2; 1,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,25; 8,54</t>
+          <t>4,14; 8,41</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-70,54; 133,49</t>
+          <t>-71,07; 155,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-82,79; 85,28</t>
+          <t>-85,35; 118,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>65,0; 602,01</t>
+          <t>48,66; 609,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-41,1; 185,37</t>
+          <t>-45,26; 173,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-56,66; 137,56</t>
+          <t>-56,77; 133,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>85,29; 497,0</t>
+          <t>76,54; 514,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-43,22; 91,75</t>
+          <t>-46,13; 96,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-51,6; 80,9</t>
+          <t>-54,33; 74,11</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>96,61; 422,61</t>
+          <t>93,25; 381,3</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 3,87</t>
+          <t>-0,61; 4,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 1,53</t>
+          <t>-2,69; 1,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 8,46</t>
+          <t>-1,29; 8,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,05; 2,64</t>
+          <t>-7,91; 3,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 14,24</t>
+          <t>-0,67; 14,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,23; 18,79</t>
+          <t>5,23; 18,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 3,02</t>
+          <t>-1,33; 3,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 3,51</t>
+          <t>-1,28; 3,47</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 9,79</t>
+          <t>-1,21; 10,16</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-19,8; 164,4</t>
+          <t>-18,68; 192,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-60,21; 75,19</t>
+          <t>-60,3; 76,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-27,66; 294,41</t>
+          <t>-26,1; 314,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-66,55; 48,52</t>
+          <t>-63,74; 58,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 235,8</t>
+          <t>-10,3; 252,11</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>38,62; 374,72</t>
+          <t>36,07; 339,03</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-27,73; 90,46</t>
+          <t>-25,09; 95,23</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-25,99; 100,62</t>
+          <t>-23,5; 108,4</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-30,3; 246,7</t>
+          <t>-17,62; 244,02</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,59</t>
+          <t>-0,34; 3,34</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 0,92</t>
+          <t>-2,25; 0,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,37; 8,51</t>
+          <t>4,3; 8,48</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 3,41</t>
+          <t>-1,83; 3,28</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 3,4</t>
+          <t>-1,37; 3,82</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,89; 56,82</t>
+          <t>5,03; 57,87</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 2,64</t>
+          <t>-0,34; 2,75</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 1,47</t>
+          <t>-1,38; 1,43</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,86; 41,79</t>
+          <t>5,61; 37,43</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 99,64</t>
+          <t>-8,2; 87,38</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-42,94; 25,72</t>
+          <t>-42,83; 24,92</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>78,22; 228,01</t>
+          <t>78,75; 229,03</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-23,43; 72,96</t>
+          <t>-26,46; 66,27</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-19,6; 76,48</t>
+          <t>-20,28; 83,45</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>80,12; 1177,04</t>
+          <t>72,34; 1136,22</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 60,48</t>
+          <t>-6,8; 62,88</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-24,14; 33,94</t>
+          <t>-23,69; 32,45</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>109,95; 893,62</t>
+          <t>105,46; 766,97</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 1,77</t>
+          <t>-3,49; 1,66</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 4,19</t>
+          <t>-1,39; 4,37</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,73; 8,15</t>
+          <t>1,87; 8,42</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,66; 9,95</t>
+          <t>3,31; 10,09</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>3,05; 9,8</t>
+          <t>3,38; 10,2</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>9,64; 20,24</t>
+          <t>9,74; 20,51</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,62; 6,17</t>
+          <t>1,44; 5,91</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,19; 6,34</t>
+          <t>2,09; 6,53</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>8,72; 15,05</t>
+          <t>8,6; 14,84</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-59,6; 56,47</t>
+          <t>-56,16; 60,82</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-24,69; 128,07</t>
+          <t>-23,69; 141,57</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>23,87; 235,89</t>
+          <t>26,5; 278,99</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>41,8; 192,69</t>
+          <t>37,95; 198,35</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>37,5; 185,26</t>
+          <t>39,65; 205,37</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>130,78; 380,5</t>
+          <t>122,9; 386,29</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>23,92; 127,95</t>
+          <t>20,14; 123,51</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>31,59; 133,1</t>
+          <t>27,55; 135,41</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>125,88; 310,28</t>
+          <t>125,35; 307,73</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 2,15</t>
+          <t>-0,31; 1,88</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 1,32</t>
+          <t>-0,62; 1,27</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,3; 3,51</t>
+          <t>0,35; 3,45</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>2,79; 7,84</t>
+          <t>2,7; 7,98</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>1,75; 6,91</t>
+          <t>1,74; 6,66</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>7,87; 13,23</t>
+          <t>7,83; 13,16</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,26; 6,51</t>
+          <t>2,17; 6,53</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>1,21; 5,45</t>
+          <t>1,06; 5,38</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>5,73; 10,33</t>
+          <t>5,95; 10,35</t>
         </is>
       </c>
     </row>
@@ -1886,32 +1886,32 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>27,63; 108,46</t>
+          <t>29,74; 112,63</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>18,24; 98,21</t>
+          <t>19,93; 93,5</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>83,53; 189,81</t>
+          <t>82,23; 187,75</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>31,6; 114,2</t>
+          <t>29,17; 108,78</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>15,66; 90,9</t>
+          <t>12,99; 89,93</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>72,41; 174,44</t>
+          <t>75,93; 174,35</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 1,31</t>
+          <t>-0,5; 1,29</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 1,0</t>
+          <t>-0,77; 0,99</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>2,52; 5,77</t>
+          <t>2,75; 5,79</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,88; 4,6</t>
+          <t>1,86; 4,54</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,78; 4,44</t>
+          <t>1,7; 4,54</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>9,02; 29,34</t>
+          <t>9,12; 29,35</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,98; 2,65</t>
+          <t>1,01; 2,64</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,83; 2,4</t>
+          <t>0,78; 2,45</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>6,73; 19,42</t>
+          <t>6,71; 17,8</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-15,15; 41,85</t>
+          <t>-13,16; 44,34</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-18,92; 33,75</t>
+          <t>-19,86; 33,13</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>72,29; 192,81</t>
+          <t>75,97; 192,67</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>26,33; 76,36</t>
+          <t>25,11; 75,36</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>24,41; 73,79</t>
+          <t>23,19; 74,98</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>130,32; 452,11</t>
+          <t>131,29; 443,42</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>17,83; 56,84</t>
+          <t>18,13; 55,84</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>14,26; 50,71</t>
+          <t>13,92; 51,2</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>129,89; 398,5</t>
+          <t>129,51; 372,1</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/POLIPATOLOGIA_5-Clase-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA_5-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
